--- a/bi-backend/src/main/resources/test_excel.xlsx
+++ b/bi-backend/src/main/resources/test_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yupi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\java\IdeaProjects\BI\bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF756E6F-D024-F543-BF1B-5BFCE872F8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9ABFF6-82C1-4537-8305-453823E539AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2660" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -57,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -120,10 +110,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="4" max="4" width="12.4375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -477,6 +467,20 @@
       </c>
       <c r="D2" s="4">
         <v>44844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bi-backend/src/main/resources/test_excel.xlsx
+++ b/bi-backend/src/main/resources/test_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\java\IdeaProjects\BI\bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9ABFF6-82C1-4537-8305-453823E539AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD103CF-E6C9-4F2C-95BB-71707F69C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -25,21 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>小数</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -49,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -81,6 +113,23 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -116,6 +165,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -443,45 +495,74 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.4">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
